--- a/500all/speech_level/speeches_CHRG-114hhrg99705.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99705.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. The subcommittee on Commerce, Manufacturing and Trade will now come to order and the chair recognizes himself for 5 minutes for an opening statement and, again, good morning to all and welcome to our hearing on examining unmanned aerial systems, or drones.    These are poised to up-end the status quo in many sectors across the country.    This hearing is the latest installment of our Disrupter Series covering a variety of disruptive technologies that are literally redefining our lives and improving our economic condition.    This hearing is timely. Tomorrow, the National Telecommunications and Information Administration will hold an important gathering in its series of multi stakeholder meetings to develop privacy best practices for drones, and the Federal Aviation Authority has also set tomorrow as the deadline for recommendations from the Drone Registry Task Force.    Drones promise to make life easier, make life safer, make life less costly for workers in a wide variety of industries. The American Farm Bureau has forecast that farmers will be using drone services to monitor their crops and could see significant return on investment.    The technology now exists for telecommunications and utility employees to send up drones up to inspect telephone poles and monitor their findings from the truck.    Insurance adjusters sent out to inspect a claimant's home for hail damage could use a drone to conduct the examination without needing a ladder to walk around on the roof. And everyone from movie studios to broadcasters have interests. With nearly a million units expected to be sold, consumer drones are predicted to be the next wave in holiday purchases in just a few weeks.    I'm sure many of us here today have noticed that trend as we start our holiday shopping. Check your gutters or a leak on your roof without leaving the ground, no problem.    The sector-specific benefits of drones add up to a massive economic impact. According to one study by the Association for Unmanned Vehicles Systems International--one of our witnesses today--drones will produce about $82 billion in growth during the next 10 years as they are integrated into our National Airspace System.    The study also predicts the addition of 100,000 jobs over those 10 years, which encompasses drone makers, software engineers, suppliers, researchers and other workers that would support expanded drone production and use.    To realize these benefits, the Federal Aviation Administration is working with stakeholders to safely integrate drones into the American airspace.    Simultaneously, the National Telecommunications and Information Administration is holding multi stakeholder meetings with the goal of producing industry best practices.    There are important questions around privacy laws and safety and United States companies like Intel are working to develop solutions that would enhance safety automatically, which no regulator could produce.    In fact, I would be more worried that overregulation on safety could prevent the investment, testing and research needed to develop market-driven solutions.    With the advent of drones, many have expressed concerns that they present novel privacy issues. Certainly, drones can go where people can't.    A neighbor can fly a drone over your fence and pester you and invade your privacy, and there have been disputes ending in drones being shot out of the air by an annoyed citizen.    There are interesting questions around whether how and when and under what circumstances a drone owner can be identified and held to account for his or her behavior.    Those questions are now being addressed at the FAA as part of the development of its registry. I should note that I share the concerns of many with requiring small recreational drones to be registered with the federal government.    Such an approach would involve casual users in a major government bureaucracy with seemingly little benefit. As regulators prepare to integrate drones into the airspace, it is clear that safety has to be the number-one priority.    But cutting-edge drone testing and evaluation is occurring overseas because the current process to approve commercial drone use is both restrictive and cumbersome in the United States.    I do want to thank our witnesses for being here this morning. I'm going to yield the balance of my time to Mr. Lance.</t>
   </si>
   <si>
     <t>412290</t>
   </si>
   <si>
-    <t>Leonard Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Chairman Burgess, for holding this hearing and welcome to the distinguished panel.    Earlier this week, a drone crashed into a car while flying over an oil refinery in Linden, New Jersey. I used to represent a portion of Linden before the reconfiguration of the congressional districts. Linden is one of the major refining locations in the United States.    The FBI is currently investigating whether or not this was an accident and is tracking down the operator who fled the scene. This is the second time in two months that a drone has crashed in Linden, which is located 10 minutes from Newark Liberty International Airport, one of the three major airports serving the New York metropolitan region.    While so far there is no evidence of ill intent in either case, these incidents bring up important concerns regarding the safety of recreational drones and the possibility for bad actors to repurpose them to cause harm to others.    I look forward to discussing these concerns and possible solutions as well as the potential benefits of UAVs with this distinguished panel.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. I thank you, Mr. Chairman, for holding today's hearing on the evolution and the future of drones. I look forward to delving into this important issue.    Drones are increasingly common in our communities and it is predicted that 1 million drones will be given as gifts over this holiday and drone usage will, clearly, rise in 2016.    It is important to understand what this technology can do and how we can adequately ensure their safe and ethical usage.    As the subcommittee of jurisdiction over the Consumer Product Safety Commission and the Federal Trade Commission, I am particularly interested today in the impacts of drone usage and public safety and privacy--the two issues that the chairman raised as well.    The FAA has received over 1,000 reports of unsafe drone activity by pilots already this year, double the number of such reports from 2014. With their capacity to reach protected and secure areas including the White House lawn, which happened earlier this year, drones can pose a serious national security threat as well.    We must ensure that drones are adequately regulated to maintain safety both for the public and for the country. The other important area for us to consider, as mentioned, is the privacy implications of the increased use of drones.    Drones can and have been equipped with invasive technologies including cameras, infrared devices, even high-powered microphones.    This new method of collecting information does not entitle individuals, corporations or government entities to violate privacy rights and we must ensure that our laws and regulations reflect that fact.    So I look forward to hearing from our witnesses to gain from their perspectives this emerging technology and I yield back my time.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman, and I want to thank each of you for being here before us today and for the information that you're going to share with us and work with us.    I appreciate this series that the chairman has put in place, the Disruptor Series, because we do live in a time when you're going to see the Internet of things, if you will, begin to move forward and become more enmeshed with our daily lives--how we do business, how our military protects ourselves, how consumers use a product in recreation.    All of those are components that we are going to be tasked with dealing with the issues and the implications.    Now, we're looking at privacy. We're looking at safety, the utilizations and also we want to look at the mechanism--the drone itself--and then what you put on the drone, which is where you get into the privacy concerns and utilization of technology that can be a little bit invasive, if you will.    But we do know that there is an enormous curiosity about these and such a desire to have a drone and play with a drone. I say I have a family full of big kids ranging from age 60 on down to age 6, all male, by the way.    And they love all of these gadgets and toys and the next new thing and they so like--yes, I hear you all chuckling. I do think that my husband is still a big kid and but there is such a fascination with this and the policy implications of that come to us--how do you encourage that curiosity, how do you allow consumer use, how do you allow commercial use and still look at the safety and security. And, of course, as we have found out with our airplanes and with air travel make certain that we are securing that space.    So thank you for your information and your wisdom. We appreciate having you here. Yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    As part of our ongoing Disruptor Series today we have the opportunity to discuss one of our fastest growing and most exciting industries.    It seems there are drones for just about everything. Photographers can attach powerful cameras to drones to get shots from high in the air. Nature lovers can take footage of wildlife in hard to reach places.    Surveyors use them to create more accurate maps. Both children and adults fly drones just for the fun of making something fly.    If you want, you can buy a drone shaped like the Millennium Falcon from Star Wars and you could say that drones are the next generation of kites if kites were Bluetooth capable and had a thousand possible uses and companies are looking into how drones can improve business.     Retail giants are exploring delivery by drone, which will get orders to consumers faster than ever. Farms use drones to oversee crop conditions and dozens of small startup companies are innovating new ways to use drones to protect the environment.    One company has designed a drone that can sense water pollution from the air. Commercial and consumer drones are attracting a huge amount of interest in investment.    The Federal Aviation Administration estimates that a million drones will be given out as gifts this holiday season, and according to one industry report investments in drone technology from January to May 2015 totaled $172 million, more than in the previous 5 years combined.    These investments are not limited to one industry or source. They come from government, venture capitalists, environmental groups and huge technology firms, among many others.    So it's exciting when technology leaps forward the way it has with drones. But as the industry develops, so do the risks. As more drones take to the air, safety becomes more of a concern. Pilots have raised concerns about sharing airspace with drones.    Drones have been seen in sports arenas and pilot sightings of drones doubled since last year, and there has also been an increase in the number of safety accidents including a man who was killed after losing control of his drone.    Also, many people are concerned that drones could enable new invasions of personal privacy. Drones can be equipped with cameras and recording devices and can be flown into people's back yards or next to their bedroom windows.    States are beginning to pass laws to restrict drone use. Many of these laws are focused on protecting personal privacy. But some people are taking matters into their own hands by shooting down drones hovering over their homes.    Innovation and growth are vital to the American economy but that innovation must also come with basic protections no matter which disruptor we're talking about.    So consumer protections are needed for those who use drones and for those who come into contact with them. By addressing these issues, businesses and consumers can have the certainty they need to continue growing and enjoying this exciting new space.    I am confident that we can encourage innovation in the drone industry and ensure that there are strong protections in place for consumers and I look forward to hearing from our witnesses how we can do just that.    I don't know if Mr.--would you like some time? Fine. I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -109,36 +94,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Wynne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wynne. Testing. There we go.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Whoever's is working please proceed 5 minutes.</t>
   </si>
   <si>
-    <t>Walden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walden. Chairman Burgess, Ranking Member Schakowsky and distinguished members of the subcommittee, thank you for the opportunity to testify on behalf of Intel Corporation.    We appreciate the invitation to appear before the subcommittee to discuss the continuously and rapidly evolving uses of unmanned aerial vehicles, UAVs or drones, and the vast economic potential of this growing industry.    Innovation has been at the heart of Intel's business since we were founded close to half a century ago. To quote our co-founder, Robert Noyce, innovation is everything.    While we are a recognized leader with 80 percent of sales coming from outside the United States, Intel is viewed as a leading American technology company for good reason. We conduct approximately three-quarters of our advanced manufacturing in research and development in the United States at facilities located throughout the country.    We invest billions of dollars annually in research and development and employ more than 50,000 people nationwide. Intel's declared mission is to utilize the power of Moore's Law to bring smart and connective devices to every person on the planet.    With the help of Moore's Law, we have driven computing innovation to the highest performing servers that speed discoveries in science and medicine to low-powered computing sensors that are always on and connected that make devices, homes and cities smarter.    It has become increasingly clear to us that UAVs like cars and watches are a computing platform of the future. Applications and services by this new connected UAV ecosystem will spur significant economic growth and will be driven by innovations in UAV technology.    From infrastructure inspection to delivery of goods, millions of Americans are on the cusp and enjoying the benefits of this continually developing technology.    UAVs are being used to inspect bridges safely and efficiently, allow for real time repairs. Mobile carriers aim to keep workers on the ground by using UAVs for cell tower inspection, an application with potential lifesaving ramifications. From 2004 to 2013, there were 95 fatalities associated with cell tower inspections.    Another up and coming usage will be having multiple drones working in conjunction with a single operator used for either surveillance, safety, agriculture and even entertainment.    Computing technology is what will help drive and manage this capability with more precision, safety and accuracy than manual control.    Technology can and will improve drone safety. We are actively creating silicon architecture and computing power that will create onboard drone platforms that will have outstanding speed, performance, and functionality.    And our most important contribution to date involves critical safety technology that will address real concerns expressed by regulators and consumers alike. Real Sense is an onboard sensor application that represents a key ingredient for best in class collision avoidance.    It features several attributes for collision avoidance with real-time onboard computing. It is intuitive, self-aware, adaptable and self-guided. It will provide real-time depth-sensing capability for a flying drone and complying with GPS, altitude, and other on-board sensors can also avoid no-fly areas and comply within regulatory limits.    I'd like to demonstrate the capability, if we could, please. So what you see Jan doing is he's no longer utilizing the controller and what the 3D Real Sense camera technology is doing is essentially sensing using infrared and moving and making sure that nobody can run into the drone. So this is real-time collision avoidance utilizing 360 degrees of freedom. Thank you, Jan.    So I think we're going to demonstrate the sense and avoid of what the drone is actually seeing. If you could please look to the video screens, hopefully. There we go.    So what you're seeing is the ring sense, or the IR picture, of what the drone is seeing. Note this is not being seen by the pilot. None of these images are saved, from a privacy perspective.    This is an IR image the drone is seeing and if someone gets closer to the camera you'll actually see the image get darker and as they move away get lighter.    So this is actually the depth that you're seeing of what the drone is seeing which enables it to avoid people and objects.    Thank you.    Society, consumers, businesses, and overall worldwide economies stand to benefit in profound ways if the nascent drone ecosystem can develop safely, quickly, and in a manner where governments and private sector work cooperatively and expeditiously across a range of statutory, regulatory, and policy matters.    We believe that it is critical for the United States to develop a regulatory framework for UAVs that role models innovation for the rest of the world. This framework should allow U.S. companies not only to compete in the global market but also lead and drive global UAV innovation.    It is possible to both improve safety and promote American innovation involving advances in drone technology. However, a federal government approach that is overly prescriptive regarding the deployment of new hardware and software will deter the private sector's ability to invent and compete in the marketplace.    In addition, privacy is of paramount importance for the public's acceptance in understanding the widespread UAV operations in all environments.    Protection of privacy has always been built into the fabric of Intel. Intel has embraced the Fair Information Practices Principles, FIPPs, as the Global Foundation for Privacy Protection to foster technology innovation. With respect to drones, the FIPPs can be applied to the drone platform in the collection, usage and distribution of data.    As Intel and others innovate and then integrate those innovations into UAV platforms it will be critical to have a seamless and effective regulatory structure in place that supports such innovation.    Approval processes that can stretch close to a year should be dramatically streamlined. Many commercial uses of small UAVs should be allowed without filing requirements just as hobbyists' use is permitted today.    Without the right regulatory balance, we risk delaying the social and societal benefits and U.S. economic opportunities. A recent study estimates over a 10-year span UAV integration with national airspace will count for $82 billion in job creation and growth.    Thank you for conducting this hearing and for giving Intel the opportunity to testify in this exciting field of drone technology which, with modern regulations in place, will transform our society into a safe and responsible fashion.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Chair thanks the gentleman.    Professor Villasenor, your 5 minutes, please.</t>
   </si>
   <si>
-    <t>Villasenor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Villasenor. Good morning, Chairman Burgess, Ranking Member Schakowsky and members of the subcommittee. I thank you very much for the opportunity to testify today.    The views I'm expressing here are my own and do not necessarily represent those of any of the organizations I am affiliated with.    Today, an unmanned aircraft can refer to everything from a small toy helicopter that might cost only $10 to a jet-powered Global Hawk which can weigh 15,000 pounds and cost over $100 million.    There are solar-powered unmanned aircraft that can stay aloft in the stratosphere for weeks at a time and hobbyist quad copters that may only weigh only a pound or two and have flight durations measured in minutes.    The Nano Hummingbird, developed by California-based AeroVironment under DARPA funding, weighs only two-thirds of an ounce including an onboard video camera, and that is technology that is now almost half a decade old.    In 2013, a team of Harvard researchers reported the successful flight of the RoboBee, a robotic insect that weighs less than one-three-hundredth of an ounce.    These examples underscore the incredible variety in unmanned aircraft and the near impossibility of predicting how this technology will evolve in the future.    An additional complicating factor is the same unmanned aircraft platform can play many different roles. For example, a small quad copter weighing one or two pounds in the hands of a professional videographer would be considered a professional platform.    That same unmanned aircraft in the hands of a hobbyist is a hobbyist platform and that same platform in the hands of a 10-year-old child might be considered a toy.    Another issue and one that falls squarely under the jurisdiction of this committee is that far more than in the past unmanned aircraft are becoming consumer products.    In the event of a defect creating a safety hazard, this creates some complex potential overlaps between agencies such as the FAA on the one hand and the Consumer Products Safety Commission on the other hand.    For unmanned aircraft that are marketed as consumer products there is certainly a role for consumer protection. I believe the Consumer Products Safety Commission recognizes this. In fact, a search of recalls on the CPSC Web site shows that they have been very active in issuing recalls related to consumer unmanned aircraft products.    Of course, no one would suggest the CPSC should have jurisdiction over a Global Hawk or that they should be involved in developing regulations governing flight operations.    But precedent makes it clear that with respect to product safety the CPSC will be in the mix and in fact has already been in the mix for quite a few years when it comes to consumer unmanned aircraft.    As consumer unmanned aircraft offerings continue to grow, there will be an increased need for coordination between the CPSC and the FAA.    For example, there will be some UAS products that serve both consumer and nonconsumer markets. The safety issue with one of those products might be initially reported to the FAA and not the CPSC or vice versa.    The good news is that the CPSC has proven adept at addressing an extremely broad range of products in the past and there is every reason to believe it will be capable of addressing the growing number of consumer unmanned aircraft product offerings that fall within its jurisdiction.    In closing, I would like to express my appreciation to the subcommittee for holding this series of hearings on disruptive technologies including the unmanned aircraft being discussed today.    With rapidly changing technologies there can sometimes be a tendency to over regulate and in doing so to inadvertently stifle innovation, impede future growth or infringe civil liberties.    To ensure a balanced approach when contemplating new policy solutions addressing these technologies, I think it is important to take a full accounting of existing frameworks, some of which can be more applicable than might initially be apparent.    Integrating unmanned aircraft into the national airspace system will open up a host of socially and economically beneficial applications.    In addition, that integration will help ensure continued American leadership not only in aviation but also in related sectors such as robotics.    I am confident that with the proper mix of education, self regulation and government oversight the overs helming majority of commercial and hobbyist unmanned aircraft operators will fly safely and in a manner respectful of privacy and property rights.    Thank you again for the opportunity to testify on this important topic.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentleman.    Professor Kaminski, you are recognized for 5 minutes for the purpose of an opening statement.</t>
   </si>
   <si>
-    <t>Kaminski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kaminski. Good morning, Chairman Burgess, Ranking Member Schakowsky and distinguished members of the subcommittee. Thank you very much for the opportunity to testify today on unmanned aircraft systems, or drones.    I am a professor of law at the Ohio State University Moritz College of Law and an affiliated fellow of the Information Society Project at Yale Law School.    However, as a fellow panelist, the views I am expressing today are my own. In my testimony I am going to focus primarily on the impact of drones on privacy, which is a crucial aspect, as many members recognize, of consumer protection.    For drones to be publically accepted and fulfill their economic potential, citizens must be able to trust that the surveillance powers drones have will not be abused.    Drones will be used for a wide variety of economically and socially beneficial activities ranging from infrastructure inspection to precision agriculture. In the best scenarios, drones will reduce risks to human actors and enable important information gathering at a low cost.    But it is precisely these beneficial aspects of drones that they enable low cost low risk information gathering that also raise the spectre of privacy harms.    While many uses of drones will have little to no impact on human populations, a wide variety of commercial applications will take place in residential environments where citizens' expectations of privacy have been recognized to be at their highest.    AUVSI, in its analysis of the first 1,000 commercial UAS exemptions granted by the FAA noted that over half of the exemptions were granted for general aerial photography, real estate uses, which quintessentially impact residential areas, followed with a third of the exemption, 350 exemptions.    Drones do raise privacy concerns on a spectrum with other technologies. Like smart phones, they make surveillance more pervasive by lowering its cost and raising the rate of social adoption.    Like GPS, they make surveillance more persistent--that is, able to follow individuals over longer periods of time. And like helicopters, they enable surveillance from disruptive vantage points.    Drones thus raise privacy problems both because of what they carry and where they carry it. Where a person used to be able to rely on a privacy fence, remote location or building height to manage their social accessibility, drones disrupt the use of these environmental management tactics that we all rely on.    These disruptions have real social costs. Not only may citizens fear drones or even shoot them down but they will alter their behavior in ways that can be truly socially harmful. Surveillance has been shown to cause conformity, and conformity has costs to both democracy and the economy.    Multiple states have, as a consequence, recently enacted privacy laws governing drones operated by nongovernmental actors.    These laws are often but not always technology specific, addressing drones but not other kinds of surveillance, and they typically govern the moment of actually surveillance when information is collected, not data privacy practices after the information has been gathered.    The content of these laws range widely. At this point, I counted nine or ten states that have enacted them. They range from protecting from the moment of gathering in any location to protecting only gathering information on private property, which is a limited value when you consider where drones can fly.    Privacy protection is crucially important but governing drones also implicates First Amendment interests. Drone journalism is a budding field. News gatherers will be able to and will use drones to gather information about droughts, land management and government actions, all information that enables democratic self-governance and raises significant First Amendment concerns.    A number of courts of appeals have now recognized a limited First Amendment right to record. The scope of that right is still very much up for question. And for this reason, I actually caution the federal government against enacting legislation that governs information gathering by drones by private actors.    Courts will need time to unravel the tension between the state privacy laws and countervailing First Amendment interests. In the meantime, federal energy can better be turned towards the data privacy issues that drones and similar new technology like the Internet of things raise.    Drone surveillance implicates not just information gathering but data privacy. State drone privacy laws do not attempt to govern this data and this, I believe, is the place for federal action.    The information privacy harms raised by drones sit, again, on a spectrum with other familiar technologies. It shares features with online surveillance. Information privacy harms will largely arise when large amounts of information are correlated, used out of context or used in a discriminatory fashion.    Drone surveillance crucially differs, however, from online surveillance in that the surveillance subject will not be the person who clicks through a user agreement.    Like the Internet of things, drones raise the question of how to govern information privacy when then surveillance subject has no relationship to the product manufacturer or service provider.    Our current data privacy regime based on requiring companies primarily to comply with their own privacy policies is ill equipped to address issues raised by the Internet of other people's things.    A federal data privacy regime based instead on the Fair Information Practice Principles, or FIPPs, embraced internationally would protect the privacy of citizens who are not subject to user agreements, would bolster FTC authority in this area and would provide a backdrop of encouraging industries to establish best practices even when they have few incentives based on consumer relationships.    To close, I support and have been participating in the Department of Commerce's efforts through the National Telecommunications Infrastructure Agency to establish and recommend best practices governing drone use and privacy.    In the absence of federal data privacy law, however, industry is unlikely to agree to meaningful protection for third parties and in the absence of meaningful privacy protections drones will not get off the ground.    Thank you very much for your time and attention and the opportunity to testify today.</t>
   </si>
   <si>
@@ -157,9 +130,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman.    Thank you to each of you witnesses that are here. This is such an important topic. Unmanned aerial systems, often called UAS, remotely piloted aircraft or drones or whatever the name, have certainly benefited the U.S. military immensely through surveillance, reconnaissance and combat missions.    As has been the case throughout history, technologies developed for the Department of Defense have tremendous potential for commercial and civilian applications as well.    However, to do so it will be essential that we safely integrate these systems into the national airspace, which is not an easy task, as you each know.    While UAS has applicability in almost all areas which require the collection of data, I believe that there are really three areas which justify specific mention. Specifically, these are support for critical transportation and logistics infrastructure, emergency response such as search and rescue and wildfires.    Finally, one area which is already showing I think possibly the greatest potential is precision agriculture. These are the applications.    With the use of the technology within these applications is staggering and each should be a reminder to us that the safe integration of UAS into the national airspace should be our highest priority.    I am pleased that the Federal Aviation Administration has chosen Mississippi State University, which is in my district, as the lead for its center of excellence for unmanned aerial systems relying on Mississippi State University and its 21 collaborating academic institutions along with over 100 industry partners to provide the research necessary for this integration.    It is critical that we move quickly to execute this research so that we can address such critical issues as sense and avoid technologies, airworthiness, remote sensing, beyond line of sight operations, cyber security and low altitude operations to enable this industry to thrive.    Following in that theme, I would like to focus my questions on FAA's role as we move forward and I will start with you, Mr. Wynne, if I may, and ask you do you believe that the FAA has adequately defined the roadmap for UAS integration.</t>
   </si>
   <si>
@@ -319,9 +289,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman, and I may be going at this a little bit different than most because the thought of more regulations just hurts my head.    But at the same time what is the point of more regulations if you can't enforce it. And sir, you just made a point of that--it's self-regulated almost.    But there has got to be something done. Mr. Walden, I hear what you say that it is built in but any technology that can be programmed in can also be programmed out. And unfortunately that may not be that particular unit but you can get it online. I can Google right now online and get a kit to build myself.    I couldn't build it but there's a lot of people out there that could. So how do we actually enforce it? How do we actually police it? Because in our communities, and I come from very rural communities, they are useful.    We can check pastures. We can check cattle. We can check fires. We can check areas that we couldn't even normally get to. We'd have to horseback into it and we can go into. And so they are very useful, but at the same time very dangerous.    And so I guess my first question would be how would you guys propose even looking into legislation that would be reasonable to enforce?</t>
   </si>
   <si>
@@ -437,9 +404,6 @@
   </si>
   <si>
     <t>412239</t>
-  </si>
-  <si>
-    <t>Peter Welch</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Welch. Thanks very much, Mr. Chairman.    Thanks for that flight, by the way. After the committee is over let's get those things revved up.    Thanks so much for coming in. One of the things that we had recently was an incredible natural disaster in Vermont--tropical storm Irene, nearly a billion dollars worth of damage. A lot of folks stranded.    And it just seems--I'm sorry, I missed some of the hearing but it seems obvious that drones could be very useful in an emergency situation getting some information that's really relevant to first responders to families.    I'll start with you, Mr. Walden, if you want to comment on how you see drones as being a useful tool in the wake of catastrophic events.</t>
@@ -877,11 +841,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -901,13 +863,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -929,11 +889,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -953,13 +911,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -981,11 +937,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1005,13 +959,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1033,11 +985,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1057,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1085,11 +1033,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1109,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1137,11 +1081,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1161,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1189,11 +1129,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1213,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1241,11 +1177,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1265,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1293,11 +1225,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1317,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1345,11 +1273,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1371,11 +1297,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1395,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1421,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1447,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1473,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1499,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1525,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1551,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1579,11 +1489,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1603,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1629,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1655,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1681,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1707,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1733,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1759,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1785,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1811,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1837,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1863,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1889,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1915,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1941,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1967,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1995,11 +1873,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2019,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2045,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2071,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2097,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2123,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2149,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2175,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2201,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2227,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2253,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2279,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2305,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2331,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2357,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2383,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2409,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2435,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2461,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2487,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2513,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2539,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2565,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2591,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2617,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2643,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2669,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2695,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2723,11 +2545,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2747,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2773,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2799,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>100</v>
-      </c>
-      <c r="G76" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2825,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2851,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
-      </c>
-      <c r="G78" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2877,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2903,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2929,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2955,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
-      </c>
-      <c r="G82" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2981,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3007,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
-      </c>
-      <c r="G84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>101</v>
-      </c>
-      <c r="H84" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3033,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3059,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3087,11 +2881,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3111,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3139,11 +2929,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3163,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3191,11 +2977,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3215,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3243,11 +3025,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3267,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3295,11 +3073,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3319,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3347,11 +3121,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3371,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G98" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3399,11 +3169,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3423,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3451,11 +3217,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3475,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3503,11 +3265,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3527,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>100</v>
-      </c>
-      <c r="G104" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3553,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
-      </c>
-      <c r="G105" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3579,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>100</v>
-      </c>
-      <c r="G106" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3605,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
-      </c>
-      <c r="G107" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3631,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>100</v>
-      </c>
-      <c r="G108" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3657,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3683,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>100</v>
-      </c>
-      <c r="G110" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3711,11 +3457,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3735,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
-      </c>
-      <c r="G112" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3761,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3787,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
-      </c>
-      <c r="G114" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3813,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3839,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>140</v>
-      </c>
-      <c r="G116" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3865,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
-      </c>
-      <c r="G117" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3891,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>140</v>
-      </c>
-      <c r="G118" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3917,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3943,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>140</v>
-      </c>
-      <c r="G120" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3969,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3995,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
+        <v>129</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
         <v>140</v>
-      </c>
-      <c r="G122" t="s">
-        <v>141</v>
-      </c>
-      <c r="H122" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4023,11 +3745,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4049,11 +3769,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99705.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99705.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Burgess. The subcommittee on Commerce, Manufacturing and Trade will now come to order and the chair recognizes himself for 5 minutes for an opening statement and, again, good morning to all and welcome to our hearing on examining unmanned aerial systems, or drones.    These are poised to up-end the status quo in many sectors across the country.    This hearing is the latest installment of our Disrupter Series covering a variety of disruptive technologies that are literally redefining our lives and improving our economic condition.    This hearing is timely. Tomorrow, the National Telecommunications and Information Administration will hold an important gathering in its series of multi stakeholder meetings to develop privacy best practices for drones, and the Federal Aviation Authority has also set tomorrow as the deadline for recommendations from the Drone Registry Task Force.    Drones promise to make life easier, make life safer, make life less costly for workers in a wide variety of industries. The American Farm Bureau has forecast that farmers will be using drone services to monitor their crops and could see significant return on investment.    The technology now exists for telecommunications and utility employees to send up drones up to inspect telephone poles and monitor their findings from the truck.    Insurance adjusters sent out to inspect a claimant's home for hail damage could use a drone to conduct the examination without needing a ladder to walk around on the roof. And everyone from movie studios to broadcasters have interests. With nearly a million units expected to be sold, consumer drones are predicted to be the next wave in holiday purchases in just a few weeks.    I'm sure many of us here today have noticed that trend as we start our holiday shopping. Check your gutters or a leak on your roof without leaving the ground, no problem.    The sector-specific benefits of drones add up to a massive economic impact. According to one study by the Association for Unmanned Vehicles Systems International--one of our witnesses today--drones will produce about $82 billion in growth during the next 10 years as they are integrated into our National Airspace System.    The study also predicts the addition of 100,000 jobs over those 10 years, which encompasses drone makers, software engineers, suppliers, researchers and other workers that would support expanded drone production and use.    To realize these benefits, the Federal Aviation Administration is working with stakeholders to safely integrate drones into the American airspace.    Simultaneously, the National Telecommunications and Information Administration is holding multi stakeholder meetings with the goal of producing industry best practices.    There are important questions around privacy laws and safety and United States companies like Intel are working to develop solutions that would enhance safety automatically, which no regulator could produce.    In fact, I would be more worried that overregulation on safety could prevent the investment, testing and research needed to develop market-driven solutions.    With the advent of drones, many have expressed concerns that they present novel privacy issues. Certainly, drones can go where people can't.    A neighbor can fly a drone over your fence and pester you and invade your privacy, and there have been disputes ending in drones being shot out of the air by an annoyed citizen.    There are interesting questions around whether how and when and under what circumstances a drone owner can be identified and held to account for his or her behavior.    Those questions are now being addressed at the FAA as part of the development of its registry. I should note that I share the concerns of many with requiring small recreational drones to be registered with the federal government.    Such an approach would involve casual users in a major government bureaucracy with seemingly little benefit. As regulators prepare to integrate drones into the airspace, it is clear that safety has to be the number-one priority.    But cutting-edge drone testing and evaluation is occurring overseas because the current process to approve commercial drone use is both restrictive and cumbersome in the United States.    I do want to thank our witnesses for being here this morning. I'm going to yield the balance of my time to Mr. Lance.</t>
   </si>
   <si>
     <t>412290</t>
   </si>
   <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Chairman Burgess, for holding this hearing and welcome to the distinguished panel.    Earlier this week, a drone crashed into a car while flying over an oil refinery in Linden, New Jersey. I used to represent a portion of Linden before the reconfiguration of the congressional districts. Linden is one of the major refining locations in the United States.    The FBI is currently investigating whether or not this was an accident and is tracking down the operator who fled the scene. This is the second time in two months that a drone has crashed in Linden, which is located 10 minutes from Newark Liberty International Airport, one of the three major airports serving the New York metropolitan region.    While so far there is no evidence of ill intent in either case, these incidents bring up important concerns regarding the safety of recreational drones and the possibility for bad actors to repurpose them to cause harm to others.    I look forward to discussing these concerns and possible solutions as well as the potential benefits of UAVs with this distinguished panel.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Schakowsky</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Schakowsky. I thank you, Mr. Chairman, for holding today's hearing on the evolution and the future of drones. I look forward to delving into this important issue.    Drones are increasingly common in our communities and it is predicted that 1 million drones will be given as gifts over this holiday and drone usage will, clearly, rise in 2016.    It is important to understand what this technology can do and how we can adequately ensure their safe and ethical usage.    As the subcommittee of jurisdiction over the Consumer Product Safety Commission and the Federal Trade Commission, I am particularly interested today in the impacts of drone usage and public safety and privacy--the two issues that the chairman raised as well.    The FAA has received over 1,000 reports of unsafe drone activity by pilots already this year, double the number of such reports from 2014. With their capacity to reach protected and secure areas including the White House lawn, which happened earlier this year, drones can pose a serious national security threat as well.    We must ensure that drones are adequately regulated to maintain safety both for the public and for the country. The other important area for us to consider, as mentioned, is the privacy implications of the increased use of drones.    Drones can and have been equipped with invasive technologies including cameras, infrared devices, even high-powered microphones.    This new method of collecting information does not entitle individuals, corporations or government entities to violate privacy rights and we must ensure that our laws and regulations reflect that fact.    So I look forward to hearing from our witnesses to gain from their perspectives this emerging technology and I yield back my time.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>400032</t>
   </si>
   <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Marsha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman, and I want to thank each of you for being here before us today and for the information that you're going to share with us and work with us.    I appreciate this series that the chairman has put in place, the Disruptor Series, because we do live in a time when you're going to see the Internet of things, if you will, begin to move forward and become more enmeshed with our daily lives--how we do business, how our military protects ourselves, how consumers use a product in recreation.    All of those are components that we are going to be tasked with dealing with the issues and the implications.    Now, we're looking at privacy. We're looking at safety, the utilizations and also we want to look at the mechanism--the drone itself--and then what you put on the drone, which is where you get into the privacy concerns and utilization of technology that can be a little bit invasive, if you will.    But we do know that there is an enormous curiosity about these and such a desire to have a drone and play with a drone. I say I have a family full of big kids ranging from age 60 on down to age 6, all male, by the way.    And they love all of these gadgets and toys and the next new thing and they so like--yes, I hear you all chuckling. I do think that my husband is still a big kid and but there is such a fascination with this and the policy implications of that come to us--how do you encourage that curiosity, how do you allow consumer use, how do you allow commercial use and still look at the safety and security. And, of course, as we have found out with our airplanes and with air travel make certain that we are securing that space.    So thank you for your information and your wisdom. We appreciate having you here. Yield back.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    As part of our ongoing Disruptor Series today we have the opportunity to discuss one of our fastest growing and most exciting industries.    It seems there are drones for just about everything. Photographers can attach powerful cameras to drones to get shots from high in the air. Nature lovers can take footage of wildlife in hard to reach places.    Surveyors use them to create more accurate maps. Both children and adults fly drones just for the fun of making something fly.    If you want, you can buy a drone shaped like the Millennium Falcon from Star Wars and you could say that drones are the next generation of kites if kites were Bluetooth capable and had a thousand possible uses and companies are looking into how drones can improve business.     Retail giants are exploring delivery by drone, which will get orders to consumers faster than ever. Farms use drones to oversee crop conditions and dozens of small startup companies are innovating new ways to use drones to protect the environment.    One company has designed a drone that can sense water pollution from the air. Commercial and consumer drones are attracting a huge amount of interest in investment.    The Federal Aviation Administration estimates that a million drones will be given out as gifts this holiday season, and according to one industry report investments in drone technology from January to May 2015 totaled $172 million, more than in the previous 5 years combined.    These investments are not limited to one industry or source. They come from government, venture capitalists, environmental groups and huge technology firms, among many others.    So it's exciting when technology leaps forward the way it has with drones. But as the industry develops, so do the risks. As more drones take to the air, safety becomes more of a concern. Pilots have raised concerns about sharing airspace with drones.    Drones have been seen in sports arenas and pilot sightings of drones doubled since last year, and there has also been an increase in the number of safety accidents including a man who was killed after losing control of his drone.    Also, many people are concerned that drones could enable new invasions of personal privacy. Drones can be equipped with cameras and recording devices and can be flown into people's back yards or next to their bedroom windows.    States are beginning to pass laws to restrict drone use. Many of these laws are focused on protecting personal privacy. But some people are taking matters into their own hands by shooting down drones hovering over their homes.    Innovation and growth are vital to the American economy but that innovation must also come with basic protections no matter which disruptor we're talking about.    So consumer protections are needed for those who use drones and for those who come into contact with them. By addressing these issues, businesses and consumers can have the certainty they need to continue growing and enjoying this exciting new space.    I am confident that we can encourage innovation in the drone industry and ensure that there are strong protections in place for consumers and I look forward to hearing from our witnesses how we can do just that.    I don't know if Mr.--would you like some time? Fine. I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -94,24 +127,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Wynne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wynne. Testing. There we go.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Whoever's is working please proceed 5 minutes.</t>
   </si>
   <si>
+    <t>Walden</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walden. Chairman Burgess, Ranking Member Schakowsky and distinguished members of the subcommittee, thank you for the opportunity to testify on behalf of Intel Corporation.    We appreciate the invitation to appear before the subcommittee to discuss the continuously and rapidly evolving uses of unmanned aerial vehicles, UAVs or drones, and the vast economic potential of this growing industry.    Innovation has been at the heart of Intel's business since we were founded close to half a century ago. To quote our co-founder, Robert Noyce, innovation is everything.    While we are a recognized leader with 80 percent of sales coming from outside the United States, Intel is viewed as a leading American technology company for good reason. We conduct approximately three-quarters of our advanced manufacturing in research and development in the United States at facilities located throughout the country.    We invest billions of dollars annually in research and development and employ more than 50,000 people nationwide. Intel's declared mission is to utilize the power of Moore's Law to bring smart and connective devices to every person on the planet.    With the help of Moore's Law, we have driven computing innovation to the highest performing servers that speed discoveries in science and medicine to low-powered computing sensors that are always on and connected that make devices, homes and cities smarter.    It has become increasingly clear to us that UAVs like cars and watches are a computing platform of the future. Applications and services by this new connected UAV ecosystem will spur significant economic growth and will be driven by innovations in UAV technology.    From infrastructure inspection to delivery of goods, millions of Americans are on the cusp and enjoying the benefits of this continually developing technology.    UAVs are being used to inspect bridges safely and efficiently, allow for real time repairs. Mobile carriers aim to keep workers on the ground by using UAVs for cell tower inspection, an application with potential lifesaving ramifications. From 2004 to 2013, there were 95 fatalities associated with cell tower inspections.    Another up and coming usage will be having multiple drones working in conjunction with a single operator used for either surveillance, safety, agriculture and even entertainment.    Computing technology is what will help drive and manage this capability with more precision, safety and accuracy than manual control.    Technology can and will improve drone safety. We are actively creating silicon architecture and computing power that will create onboard drone platforms that will have outstanding speed, performance, and functionality.    And our most important contribution to date involves critical safety technology that will address real concerns expressed by regulators and consumers alike. Real Sense is an onboard sensor application that represents a key ingredient for best in class collision avoidance.    It features several attributes for collision avoidance with real-time onboard computing. It is intuitive, self-aware, adaptable and self-guided. It will provide real-time depth-sensing capability for a flying drone and complying with GPS, altitude, and other on-board sensors can also avoid no-fly areas and comply within regulatory limits.    I'd like to demonstrate the capability, if we could, please. So what you see Jan doing is he's no longer utilizing the controller and what the 3D Real Sense camera technology is doing is essentially sensing using infrared and moving and making sure that nobody can run into the drone. So this is real-time collision avoidance utilizing 360 degrees of freedom. Thank you, Jan.    So I think we're going to demonstrate the sense and avoid of what the drone is actually seeing. If you could please look to the video screens, hopefully. There we go.    So what you're seeing is the ring sense, or the IR picture, of what the drone is seeing. Note this is not being seen by the pilot. None of these images are saved, from a privacy perspective.    This is an IR image the drone is seeing and if someone gets closer to the camera you'll actually see the image get darker and as they move away get lighter.    So this is actually the depth that you're seeing of what the drone is seeing which enables it to avoid people and objects.    Thank you.    Society, consumers, businesses, and overall worldwide economies stand to benefit in profound ways if the nascent drone ecosystem can develop safely, quickly, and in a manner where governments and private sector work cooperatively and expeditiously across a range of statutory, regulatory, and policy matters.    We believe that it is critical for the United States to develop a regulatory framework for UAVs that role models innovation for the rest of the world. This framework should allow U.S. companies not only to compete in the global market but also lead and drive global UAV innovation.    It is possible to both improve safety and promote American innovation involving advances in drone technology. However, a federal government approach that is overly prescriptive regarding the deployment of new hardware and software will deter the private sector's ability to invent and compete in the marketplace.    In addition, privacy is of paramount importance for the public's acceptance in understanding the widespread UAV operations in all environments.    Protection of privacy has always been built into the fabric of Intel. Intel has embraced the Fair Information Practices Principles, FIPPs, as the Global Foundation for Privacy Protection to foster technology innovation. With respect to drones, the FIPPs can be applied to the drone platform in the collection, usage and distribution of data.    As Intel and others innovate and then integrate those innovations into UAV platforms it will be critical to have a seamless and effective regulatory structure in place that supports such innovation.    Approval processes that can stretch close to a year should be dramatically streamlined. Many commercial uses of small UAVs should be allowed without filing requirements just as hobbyists' use is permitted today.    Without the right regulatory balance, we risk delaying the social and societal benefits and U.S. economic opportunities. A recent study estimates over a 10-year span UAV integration with national airspace will count for $82 billion in job creation and growth.    Thank you for conducting this hearing and for giving Intel the opportunity to testify in this exciting field of drone technology which, with modern regulations in place, will transform our society into a safe and responsible fashion.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Chair thanks the gentleman.    Professor Villasenor, your 5 minutes, please.</t>
   </si>
   <si>
+    <t>Villasenor</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Villasenor. Good morning, Chairman Burgess, Ranking Member Schakowsky and members of the subcommittee. I thank you very much for the opportunity to testify today.    The views I'm expressing here are my own and do not necessarily represent those of any of the organizations I am affiliated with.    Today, an unmanned aircraft can refer to everything from a small toy helicopter that might cost only $10 to a jet-powered Global Hawk which can weigh 15,000 pounds and cost over $100 million.    There are solar-powered unmanned aircraft that can stay aloft in the stratosphere for weeks at a time and hobbyist quad copters that may only weigh only a pound or two and have flight durations measured in minutes.    The Nano Hummingbird, developed by California-based AeroVironment under DARPA funding, weighs only two-thirds of an ounce including an onboard video camera, and that is technology that is now almost half a decade old.    In 2013, a team of Harvard researchers reported the successful flight of the RoboBee, a robotic insect that weighs less than one-three-hundredth of an ounce.    These examples underscore the incredible variety in unmanned aircraft and the near impossibility of predicting how this technology will evolve in the future.    An additional complicating factor is the same unmanned aircraft platform can play many different roles. For example, a small quad copter weighing one or two pounds in the hands of a professional videographer would be considered a professional platform.    That same unmanned aircraft in the hands of a hobbyist is a hobbyist platform and that same platform in the hands of a 10-year-old child might be considered a toy.    Another issue and one that falls squarely under the jurisdiction of this committee is that far more than in the past unmanned aircraft are becoming consumer products.    In the event of a defect creating a safety hazard, this creates some complex potential overlaps between agencies such as the FAA on the one hand and the Consumer Products Safety Commission on the other hand.    For unmanned aircraft that are marketed as consumer products there is certainly a role for consumer protection. I believe the Consumer Products Safety Commission recognizes this. In fact, a search of recalls on the CPSC Web site shows that they have been very active in issuing recalls related to consumer unmanned aircraft products.    Of course, no one would suggest the CPSC should have jurisdiction over a Global Hawk or that they should be involved in developing regulations governing flight operations.    But precedent makes it clear that with respect to product safety the CPSC will be in the mix and in fact has already been in the mix for quite a few years when it comes to consumer unmanned aircraft.    As consumer unmanned aircraft offerings continue to grow, there will be an increased need for coordination between the CPSC and the FAA.    For example, there will be some UAS products that serve both consumer and nonconsumer markets. The safety issue with one of those products might be initially reported to the FAA and not the CPSC or vice versa.    The good news is that the CPSC has proven adept at addressing an extremely broad range of products in the past and there is every reason to believe it will be capable of addressing the growing number of consumer unmanned aircraft product offerings that fall within its jurisdiction.    In closing, I would like to express my appreciation to the subcommittee for holding this series of hearings on disruptive technologies including the unmanned aircraft being discussed today.    With rapidly changing technologies there can sometimes be a tendency to over regulate and in doing so to inadvertently stifle innovation, impede future growth or infringe civil liberties.    To ensure a balanced approach when contemplating new policy solutions addressing these technologies, I think it is important to take a full accounting of existing frameworks, some of which can be more applicable than might initially be apparent.    Integrating unmanned aircraft into the national airspace system will open up a host of socially and economically beneficial applications.    In addition, that integration will help ensure continued American leadership not only in aviation but also in related sectors such as robotics.    I am confident that with the proper mix of education, self regulation and government oversight the overs helming majority of commercial and hobbyist unmanned aircraft operators will fly safely and in a manner respectful of privacy and property rights.    Thank you again for the opportunity to testify on this important topic.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentleman.    Professor Kaminski, you are recognized for 5 minutes for the purpose of an opening statement.</t>
   </si>
   <si>
+    <t>Kaminski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kaminski. Good morning, Chairman Burgess, Ranking Member Schakowsky and distinguished members of the subcommittee. Thank you very much for the opportunity to testify today on unmanned aircraft systems, or drones.    I am a professor of law at the Ohio State University Moritz College of Law and an affiliated fellow of the Information Society Project at Yale Law School.    However, as a fellow panelist, the views I am expressing today are my own. In my testimony I am going to focus primarily on the impact of drones on privacy, which is a crucial aspect, as many members recognize, of consumer protection.    For drones to be publically accepted and fulfill their economic potential, citizens must be able to trust that the surveillance powers drones have will not be abused.    Drones will be used for a wide variety of economically and socially beneficial activities ranging from infrastructure inspection to precision agriculture. In the best scenarios, drones will reduce risks to human actors and enable important information gathering at a low cost.    But it is precisely these beneficial aspects of drones that they enable low cost low risk information gathering that also raise the spectre of privacy harms.    While many uses of drones will have little to no impact on human populations, a wide variety of commercial applications will take place in residential environments where citizens' expectations of privacy have been recognized to be at their highest.    AUVSI, in its analysis of the first 1,000 commercial UAS exemptions granted by the FAA noted that over half of the exemptions were granted for general aerial photography, real estate uses, which quintessentially impact residential areas, followed with a third of the exemption, 350 exemptions.    Drones do raise privacy concerns on a spectrum with other technologies. Like smart phones, they make surveillance more pervasive by lowering its cost and raising the rate of social adoption.    Like GPS, they make surveillance more persistent--that is, able to follow individuals over longer periods of time. And like helicopters, they enable surveillance from disruptive vantage points.    Drones thus raise privacy problems both because of what they carry and where they carry it. Where a person used to be able to rely on a privacy fence, remote location or building height to manage their social accessibility, drones disrupt the use of these environmental management tactics that we all rely on.    These disruptions have real social costs. Not only may citizens fear drones or even shoot them down but they will alter their behavior in ways that can be truly socially harmful. Surveillance has been shown to cause conformity, and conformity has costs to both democracy and the economy.    Multiple states have, as a consequence, recently enacted privacy laws governing drones operated by nongovernmental actors.    These laws are often but not always technology specific, addressing drones but not other kinds of surveillance, and they typically govern the moment of actually surveillance when information is collected, not data privacy practices after the information has been gathered.    The content of these laws range widely. At this point, I counted nine or ten states that have enacted them. They range from protecting from the moment of gathering in any location to protecting only gathering information on private property, which is a limited value when you consider where drones can fly.    Privacy protection is crucially important but governing drones also implicates First Amendment interests. Drone journalism is a budding field. News gatherers will be able to and will use drones to gather information about droughts, land management and government actions, all information that enables democratic self-governance and raises significant First Amendment concerns.    A number of courts of appeals have now recognized a limited First Amendment right to record. The scope of that right is still very much up for question. And for this reason, I actually caution the federal government against enacting legislation that governs information gathering by drones by private actors.    Courts will need time to unravel the tension between the state privacy laws and countervailing First Amendment interests. In the meantime, federal energy can better be turned towards the data privacy issues that drones and similar new technology like the Internet of things raise.    Drone surveillance implicates not just information gathering but data privacy. State drone privacy laws do not attempt to govern this data and this, I believe, is the place for federal action.    The information privacy harms raised by drones sit, again, on a spectrum with other familiar technologies. It shares features with online surveillance. Information privacy harms will largely arise when large amounts of information are correlated, used out of context or used in a discriminatory fashion.    Drone surveillance crucially differs, however, from online surveillance in that the surveillance subject will not be the person who clicks through a user agreement.    Like the Internet of things, drones raise the question of how to govern information privacy when then surveillance subject has no relationship to the product manufacturer or service provider.    Our current data privacy regime based on requiring companies primarily to comply with their own privacy policies is ill equipped to address issues raised by the Internet of other people's things.    A federal data privacy regime based instead on the Fair Information Practice Principles, or FIPPs, embraced internationally would protect the privacy of citizens who are not subject to user agreements, would bolster FTC authority in this area and would provide a backdrop of encouraging industries to establish best practices even when they have few incentives based on consumer relationships.    To close, I support and have been participating in the Department of Commerce's efforts through the National Telecommunications Infrastructure Agency to establish and recommend best practices governing drone use and privacy.    In the absence of federal data privacy law, however, industry is unlikely to agree to meaningful protection for third parties and in the absence of meaningful privacy protections drones will not get off the ground.    Thank you very much for your time and attention and the opportunity to testify today.</t>
   </si>
   <si>
@@ -130,6 +175,12 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman.    Thank you to each of you witnesses that are here. This is such an important topic. Unmanned aerial systems, often called UAS, remotely piloted aircraft or drones or whatever the name, have certainly benefited the U.S. military immensely through surveillance, reconnaissance and combat missions.    As has been the case throughout history, technologies developed for the Department of Defense have tremendous potential for commercial and civilian applications as well.    However, to do so it will be essential that we safely integrate these systems into the national airspace, which is not an easy task, as you each know.    While UAS has applicability in almost all areas which require the collection of data, I believe that there are really three areas which justify specific mention. Specifically, these are support for critical transportation and logistics infrastructure, emergency response such as search and rescue and wildfires.    Finally, one area which is already showing I think possibly the greatest potential is precision agriculture. These are the applications.    With the use of the technology within these applications is staggering and each should be a reminder to us that the safe integration of UAS into the national airspace should be our highest priority.    I am pleased that the Federal Aviation Administration has chosen Mississippi State University, which is in my district, as the lead for its center of excellence for unmanned aerial systems relying on Mississippi State University and its 21 collaborating academic institutions along with over 100 industry partners to provide the research necessary for this integration.    It is critical that we move quickly to execute this research so that we can address such critical issues as sense and avoid technologies, airworthiness, remote sensing, beyond line of sight operations, cyber security and low altitude operations to enable this industry to thrive.    Following in that theme, I would like to focus my questions on FAA's role as we move forward and I will start with you, Mr. Wynne, if I may, and ask you do you believe that the FAA has adequately defined the roadmap for UAS integration.</t>
   </si>
   <si>
@@ -289,6 +340,12 @@
     <t>412568</t>
   </si>
   <si>
+    <t>Mullin</t>
+  </si>
+  <si>
+    <t>Markwayne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman, and I may be going at this a little bit different than most because the thought of more regulations just hurts my head.    But at the same time what is the point of more regulations if you can't enforce it. And sir, you just made a point of that--it's self-regulated almost.    But there has got to be something done. Mr. Walden, I hear what you say that it is built in but any technology that can be programmed in can also be programmed out. And unfortunately that may not be that particular unit but you can get it online. I can Google right now online and get a kit to build myself.    I couldn't build it but there's a lot of people out there that could. So how do we actually enforce it? How do we actually police it? Because in our communities, and I come from very rural communities, they are useful.    We can check pastures. We can check cattle. We can check fires. We can check areas that we couldn't even normally get to. We'd have to horseback into it and we can go into. And so they are very useful, but at the same time very dangerous.    And so I guess my first question would be how would you guys propose even looking into legislation that would be reasonable to enforce?</t>
   </si>
   <si>
@@ -404,6 +461,12 @@
   </si>
   <si>
     <t>412239</t>
+  </si>
+  <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>Peter</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Welch. Thanks very much, Mr. Chairman.    Thanks for that flight, by the way. After the committee is over let's get those things revved up.    Thanks so much for coming in. One of the things that we had recently was an incredible natural disaster in Vermont--tropical storm Irene, nearly a billion dollars worth of damage. A lot of folks stranded.    And it just seems--I'm sorry, I missed some of the hearing but it seems obvious that drones could be very useful in an emergency situation getting some information that's really relevant to first responders to families.    I'll start with you, Mr. Walden, if you want to comment on how you see drones as being a useful tool in the wake of catastrophic events.</t>
@@ -791,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +862,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,2957 +884,3475 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
       <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
       <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
       <c r="H26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
       <c r="H28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
       <c r="H30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
       <c r="H32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
       <c r="H34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G74" t="s">
+        <v>108</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G76" t="s">
+        <v>108</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G78" t="s">
+        <v>108</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G80" t="s">
+        <v>108</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G82" t="s">
+        <v>108</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G84" t="s">
+        <v>108</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G86" t="s">
+        <v>108</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G92" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G94" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G102" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>90</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G104" t="s">
+        <v>108</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s">
+        <v>40</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>90</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G106" t="s">
+        <v>108</v>
+      </c>
       <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G107" t="s">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>90</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G108" t="s">
+        <v>108</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>90</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G110" t="s">
+        <v>108</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G112" t="s">
+        <v>149</v>
+      </c>
       <c r="H112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G113" t="s">
+        <v>40</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>129</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G114" t="s">
+        <v>149</v>
+      </c>
       <c r="H114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
+        <v>43</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>129</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G116" t="s">
+        <v>149</v>
+      </c>
       <c r="H116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s">
+        <v>43</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>129</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G118" t="s">
+        <v>149</v>
+      </c>
       <c r="H118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G119" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>129</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G120" t="s">
+        <v>149</v>
+      </c>
       <c r="H120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>129</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G122" t="s">
+        <v>149</v>
+      </c>
       <c r="H122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99705.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99705.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Burgess</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412290</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Lance</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Schakowsky</t>
   </si>
   <si>
@@ -97,6 +109,9 @@
     <t>400032</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Blackburn</t>
   </si>
   <si>
@@ -110,6 +125,9 @@
   </si>
   <si>
     <t>400308</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Pallone</t>
@@ -854,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,7 +880,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,3472 +905,3744 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="s">
-        <v>40</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" t="s">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" t="s">
-        <v>37</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G74" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H74" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G76" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G78" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H78" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G80" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G82" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G84" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" t="s">
-        <v>46</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>52</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G86" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" t="s">
-        <v>37</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>43</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
-      </c>
-      <c r="G94" t="s">
-        <v>37</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G96" t="s">
-        <v>46</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>52</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
-      </c>
-      <c r="G98" t="s">
-        <v>46</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>52</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
-      </c>
-      <c r="G100" t="s">
-        <v>46</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>52</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
-      </c>
-      <c r="G102" t="s">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G104" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H104" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
-      </c>
-      <c r="G105" t="s">
-        <v>40</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G106" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H106" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
-      </c>
-      <c r="G107" t="s">
-        <v>40</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G108" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H108" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>43</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>49</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G110" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="H110" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G112" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="H112" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I112" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
-      </c>
-      <c r="G113" t="s">
-        <v>40</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>46</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G114" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I114" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
-      </c>
-      <c r="G115" t="s">
-        <v>43</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>49</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G116" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="H116" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I116" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
-      </c>
-      <c r="G117" t="s">
-        <v>43</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>49</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G118" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="H118" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
-      </c>
-      <c r="G119" t="s">
-        <v>37</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>43</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G120" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I120" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
-      </c>
-      <c r="G121" t="s">
-        <v>46</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>52</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G122" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I122" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>163</v>
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
